--- a/data/trans_camb/P27A_9-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27A_9-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,10 +652,25 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -649,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,10 +705,25 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -687,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,10 +758,25 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -762,12 +853,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -777,12 +868,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -800,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -838,12 +959,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -853,12 +974,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>68,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 1,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-38,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-21,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1203,12 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 209,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-76,79; 315,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 5,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 18,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 5,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 6,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 9,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>194,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-94,96; 519,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-73,92; 579,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 266,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 557,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 11,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 15,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 9,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 14,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 7,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 10,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-66,11; 168,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 223,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-59,73; 190,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-67,87; 339,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 117,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 155,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,91; 129,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 198,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 156,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 208,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 84,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 151,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
